--- a/MOSFERATU TAYDA UV PRINTING.xlsx
+++ b/MOSFERATU TAYDA UV PRINTING.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\23 NOV 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11374704-3AFC-4F57-B1DF-A549FD276DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBA20EC-0557-4F19-968E-AB5EE6E095B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>3PDT1</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>WIDTH</t>
   </si>
   <si>
@@ -68,9 +62,6 @@
     <t>RESONANCE</t>
   </si>
   <si>
-    <t>VOICE</t>
-  </si>
-  <si>
     <t>LED1</t>
   </si>
   <si>
@@ -95,10 +86,100 @@
     <t>Drill DN</t>
   </si>
   <si>
-    <t>Rectangle</t>
-  </si>
-  <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>DRILL X</t>
+  </si>
+  <si>
+    <t>DRILL Y</t>
+  </si>
+  <si>
+    <t>AI X</t>
+  </si>
+  <si>
+    <t>AI Y</t>
+  </si>
+  <si>
+    <t>9.5*11.5</t>
+  </si>
+  <si>
+    <t>DRILL FACE</t>
+  </si>
+  <si>
+    <t>UV Painting</t>
+  </si>
+  <si>
+    <t>LABEL 3PDT1</t>
+  </si>
+  <si>
+    <t>LABEL DRIVE</t>
+  </si>
+  <si>
+    <t>LABEL LEVEL</t>
+  </si>
+  <si>
+    <t>LABEL J1</t>
+  </si>
+  <si>
+    <t>LABEL J2</t>
+  </si>
+  <si>
+    <t>LABEL LED1</t>
+  </si>
+  <si>
+    <t>LABEL BODY</t>
+  </si>
+  <si>
+    <t>LABEL FOCUS</t>
+  </si>
+  <si>
+    <t>LABEL EDGE</t>
+  </si>
+  <si>
+    <t>LABEL V1</t>
+  </si>
+  <si>
+    <t>drill dot</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>SPDT1</t>
+  </si>
+  <si>
+    <t>SPDT2</t>
+  </si>
+  <si>
+    <t>PCB SIDE</t>
+  </si>
+  <si>
+    <t>LABEL SPDT1</t>
+  </si>
+  <si>
+    <t>LABEL SPDT2</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>VOICING</t>
+  </si>
+  <si>
+    <t>ON/OFF</t>
+  </si>
+  <si>
+    <t>9V DC</t>
+  </si>
+  <si>
+    <t>RhPf Electronics MOSFERATU</t>
   </si>
 </sst>
 </file>
@@ -134,7 +215,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -416,26 +498,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -444,289 +529,583 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>13.5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-43</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2">
+        <f>F2+31</f>
         <v>31</v>
       </c>
-      <c r="C2">
+      <c r="L2">
+        <f>-G2+58.5</f>
         <v>101.5</v>
       </c>
-      <c r="D2">
-        <v>17</v>
-      </c>
-      <c r="E2">
-        <v>13.5</v>
-      </c>
-      <c r="F2">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>12.7</v>
+      </c>
+      <c r="C3">
+        <v>12.7</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-21</v>
+      </c>
+      <c r="G3" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K13" si="0">F3+31</f>
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L13" si="1">-G3+58.5</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>12.7</v>
+      </c>
+      <c r="C4">
+        <v>12.7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="F5" s="1">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1">
+        <v>46.5</v>
+      </c>
+      <c r="H5">
         <v>12</v>
       </c>
-      <c r="G2">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>46.5</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>7.5</v>
+      </c>
+      <c r="C7">
+        <v>7.5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-21</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>15</v>
-      </c>
-      <c r="C3">
+      <c r="I7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>7.5</v>
+      </c>
+      <c r="C8">
+        <v>7.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1">
         <v>10.5</v>
       </c>
-      <c r="D3">
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7.5</v>
+      </c>
+      <c r="C9">
+        <v>7.5</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>21</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>12.7</v>
       </c>
-      <c r="E3">
+      <c r="C10">
         <v>12.7</v>
       </c>
-      <c r="F3">
+      <c r="F10" s="1">
+        <v>-21</v>
+      </c>
+      <c r="G10" s="1">
+        <v>24</v>
+      </c>
+      <c r="H10">
         <v>7</v>
       </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+      <c r="I10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>12.7</v>
+      </c>
+      <c r="C11">
+        <v>12.7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>34.25</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>12.7</v>
+      </c>
+      <c r="C12">
+        <v>12.7</v>
+      </c>
+      <c r="F12" s="1">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1">
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>9.5</v>
+      </c>
+      <c r="C13">
+        <v>11.5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
         <v>47</v>
       </c>
-      <c r="C4">
-        <v>10.5</v>
-      </c>
-      <c r="D4">
-        <v>12.7</v>
-      </c>
-      <c r="E4">
-        <v>12.7</v>
-      </c>
-      <c r="F4">
+      <c r="K14">
+        <f>K2</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" ref="K15:K25" si="2">K3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>47</v>
-      </c>
-      <c r="C5">
-        <v>13.5</v>
-      </c>
-      <c r="D5">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>24.8</v>
-      </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>13.5</v>
-      </c>
-      <c r="D6">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>24.8</v>
-      </c>
-      <c r="F6">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="K19" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>101.5</v>
-      </c>
-      <c r="D7">
-        <v>7.5</v>
-      </c>
-      <c r="E7">
-        <v>7.5</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="K22" s="1">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>53</v>
-      </c>
-      <c r="C8">
-        <v>101.5</v>
-      </c>
-      <c r="D8">
-        <v>7.5</v>
-      </c>
-      <c r="E8">
-        <v>7.5</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="K24" s="1">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="2"/>
         <v>31</v>
-      </c>
-      <c r="C9">
-        <v>10.5</v>
-      </c>
-      <c r="D9">
-        <v>7.5</v>
-      </c>
-      <c r="E9">
-        <v>7.5</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>44.5</v>
-      </c>
-      <c r="D10">
-        <v>12.7</v>
-      </c>
-      <c r="E10">
-        <v>12.7</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>31</v>
-      </c>
-      <c r="C11">
-        <v>27.15</v>
-      </c>
-      <c r="D11">
-        <v>12.7</v>
-      </c>
-      <c r="E11">
-        <v>12.7</v>
-      </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
-      <c r="G11">
-        <v>36.65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>47</v>
-      </c>
-      <c r="C12">
-        <v>44.5</v>
-      </c>
-      <c r="D12">
-        <v>12.7</v>
-      </c>
-      <c r="E12">
-        <v>12.7</v>
-      </c>
-      <c r="F12">
-        <v>7</v>
-      </c>
-      <c r="G12">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>31</v>
-      </c>
-      <c r="D13">
-        <v>9.5</v>
-      </c>
-      <c r="E13">
-        <v>11.5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/MOSFERATU TAYDA UV PRINTING.xlsx
+++ b/MOSFERATU TAYDA UV PRINTING.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\23 NOV 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBA20EC-0557-4F19-968E-AB5EE6E095B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA15BA7-B552-4806-9C39-79E8D8CC31F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="49">
   <si>
     <t>3PDT1</t>
   </si>
@@ -59,9 +59,6 @@
     <t>J2</t>
   </si>
   <si>
-    <t>RESONANCE</t>
-  </si>
-  <si>
     <t>LED1</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>EDGE</t>
   </si>
   <si>
-    <t>LABEL Y</t>
-  </si>
-  <si>
     <t>V1</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>AI Y</t>
   </si>
   <si>
-    <t>9.5*11.5</t>
-  </si>
-  <si>
     <t>DRILL FACE</t>
   </si>
   <si>
@@ -125,9 +116,6 @@
     <t>LABEL J2</t>
   </si>
   <si>
-    <t>LABEL LED1</t>
-  </si>
-  <si>
     <t>LABEL BODY</t>
   </si>
   <si>
@@ -158,28 +146,43 @@
     <t>PCB SIDE</t>
   </si>
   <si>
-    <t>LABEL SPDT1</t>
-  </si>
-  <si>
-    <t>LABEL SPDT2</t>
-  </si>
-  <si>
     <t>IN</t>
   </si>
   <si>
     <t>OUT</t>
   </si>
   <si>
-    <t>VOICING</t>
-  </si>
-  <si>
-    <t>ON/OFF</t>
-  </si>
-  <si>
     <t>9V DC</t>
   </si>
   <si>
-    <t>RhPf Electronics MOSFERATU</t>
+    <t>MOSFERATU</t>
+  </si>
+  <si>
+    <t>RhPf Electronics</t>
+  </si>
+  <si>
+    <t>LOGO1</t>
+  </si>
+  <si>
+    <t>LOGO</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>10*8</t>
+  </si>
+  <si>
+    <t>FACEB(RECTANGLE)</t>
+  </si>
+  <si>
+    <t>43*17</t>
+  </si>
+  <si>
+    <t>BRAND</t>
   </si>
 </sst>
 </file>
@@ -215,8 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -498,29 +500,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -529,34 +531,31 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -566,31 +565,34 @@
       <c r="C2">
         <v>13.5</v>
       </c>
-      <c r="F2" s="1">
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="G2" s="1">
+      <c r="F2">
         <v>-43</v>
       </c>
-      <c r="H2">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <f>E2+31</f>
+        <v>31</v>
       </c>
       <c r="K2">
-        <f>F2+31</f>
-        <v>31</v>
-      </c>
-      <c r="L2">
-        <f>-G2+58.5</f>
+        <f>-F2+58.5</f>
         <v>101.5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -600,31 +602,34 @@
       <c r="C3">
         <v>12.7</v>
       </c>
-      <c r="F3" s="1">
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3">
         <v>-21</v>
       </c>
-      <c r="G3" s="1">
+      <c r="F3">
         <v>44.5</v>
       </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J14" si="0">E3+31</f>
+        <v>10</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K13" si="0">F3+31</f>
-        <v>10</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L13" si="1">-G3+58.5</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ref="K3:K14" si="1">-F3+58.5</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -634,31 +639,34 @@
       <c r="C4">
         <v>12.7</v>
       </c>
-      <c r="F4" s="1">
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4">
         <v>21</v>
       </c>
-      <c r="G4" s="1">
+      <c r="F4">
         <v>44.5</v>
       </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4">
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="L4">
+      <c r="K4">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -668,67 +676,73 @@
       <c r="C5">
         <v>33.799999999999997</v>
       </c>
-      <c r="F5" s="1">
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5">
         <v>15</v>
       </c>
-      <c r="G5" s="1">
-        <v>46.5</v>
-      </c>
-      <c r="H5">
-        <v>12</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="L5">
+      <c r="K5">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>14</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>33.799999999999997</v>
       </c>
-      <c r="F6" s="1">
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6">
         <v>-15</v>
       </c>
-      <c r="G6" s="1">
-        <v>46.5</v>
-      </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="L6">
+      <c r="K6">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>33</v>
       </c>
       <c r="B7">
         <v>7.5</v>
@@ -736,33 +750,36 @@
       <c r="C7">
         <v>7.5</v>
       </c>
-      <c r="F7" s="1">
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7">
         <v>-21</v>
       </c>
-      <c r="G7" s="1">
+      <c r="F7">
         <v>10.5</v>
       </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7">
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L7">
+      <c r="K7">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>38</v>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>34</v>
       </c>
       <c r="B8">
         <v>7.5</v>
@@ -770,33 +787,36 @@
       <c r="C8">
         <v>7.5</v>
       </c>
-      <c r="F8" s="1">
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8">
         <v>21</v>
       </c>
-      <c r="G8" s="1">
+      <c r="F8">
         <v>10.5</v>
       </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8">
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="L8">
+      <c r="K8">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>7.5</v>
@@ -804,33 +824,36 @@
       <c r="C9">
         <v>7.5</v>
       </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>21</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" t="s">
-        <v>34</v>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="L9">
         <f t="shared" si="1"/>
         <v>58.5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>12.7</v>
@@ -838,33 +861,36 @@
       <c r="C10">
         <v>12.7</v>
       </c>
-      <c r="F10" s="1">
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10">
         <v>-21</v>
       </c>
-      <c r="G10" s="1">
+      <c r="F10">
         <v>24</v>
       </c>
-      <c r="H10">
-        <v>7</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10">
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L10">
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>34.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>12.7</v>
@@ -872,33 +898,36 @@
       <c r="C11">
         <v>12.7</v>
       </c>
-      <c r="F11" s="1">
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11">
         <v>0</v>
       </c>
-      <c r="G11" s="1">
+      <c r="F11">
         <v>34.25</v>
       </c>
-      <c r="H11">
-        <v>7</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" t="s">
-        <v>34</v>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="L11">
         <f t="shared" si="1"/>
         <v>24.25</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>12.7</v>
@@ -906,33 +935,36 @@
       <c r="C12">
         <v>12.7</v>
       </c>
-      <c r="F12" s="1">
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12">
         <v>21</v>
       </c>
-      <c r="G12" s="1">
+      <c r="F12">
         <v>24</v>
       </c>
-      <c r="H12">
-        <v>7</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12">
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="L12">
+      <c r="K12">
         <f t="shared" si="1"/>
         <v>34.5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>9.5</v>
@@ -940,172 +972,497 @@
       <c r="C13">
         <v>11.5</v>
       </c>
-      <c r="F13" s="1">
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13">
         <v>0</v>
       </c>
-      <c r="G13" s="1">
+      <c r="F13">
         <v>49</v>
       </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
       <c r="H13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="L13">
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>43</v>
+      </c>
+      <c r="C14">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
         <v>47</v>
       </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
       <c r="K14">
-        <f>K2</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" ref="K15:K25" si="2">K3</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>28.5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="2"/>
-        <v>52</v>
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16">
+        <f>J2</f>
+        <v>31</v>
+      </c>
+      <c r="K16">
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="2"/>
-        <v>46</v>
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <f>J3</f>
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <f>J4</f>
+        <v>52</v>
+      </c>
+      <c r="K18">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19">
+        <f>J5</f>
+        <v>46</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" si="2"/>
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20">
+        <f>J6</f>
+        <v>16</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="2"/>
-        <v>31</v>
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21">
+        <v>31</v>
+      </c>
+      <c r="K21">
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <f>J10</f>
         <v>10</v>
+      </c>
+      <c r="K22">
+        <v>40.5</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="2"/>
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23">
+        <f>J11</f>
+        <v>31</v>
+      </c>
+      <c r="K23">
+        <v>33.25</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <f>J12</f>
         <v>52</v>
+      </c>
+      <c r="K24">
+        <v>40.5</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="2"/>
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25">
+        <f>J13</f>
+        <v>31</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26">
+        <v>31</v>
+      </c>
+      <c r="K26">
+        <v>73.5</v>
       </c>
     </row>
   </sheetData>
